--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5970505493883</v>
+        <v>215.0483686042642</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.5805519670073</v>
+        <v>294.2386651886632</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.4374256039058</v>
+        <v>266.1569399497042</v>
       </c>
       <c r="AD2" t="n">
-        <v>146597.0505493883</v>
+        <v>215048.3686042642</v>
       </c>
       <c r="AE2" t="n">
-        <v>200580.5519670073</v>
+        <v>294238.6651886632</v>
       </c>
       <c r="AF2" t="n">
         <v>1.317525023079801e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>181437.4256039058</v>
+        <v>266156.9399497042</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.5463275561835</v>
+        <v>178.4216141002201</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.2510005429071</v>
+        <v>244.1243238178881</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.3344138244832</v>
+        <v>220.82544098342</v>
       </c>
       <c r="AD3" t="n">
-        <v>129546.3275561834</v>
+        <v>178421.6141002201</v>
       </c>
       <c r="AE3" t="n">
-        <v>177251.0005429071</v>
+        <v>244124.3238178881</v>
       </c>
       <c r="AF3" t="n">
         <v>1.50493311936588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>160334.4138244833</v>
+        <v>220825.44098342</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.2581747027757</v>
+        <v>175.6950858720965</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1202488626967</v>
+        <v>240.3937676102351</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5024566905936</v>
+        <v>217.4509238243558</v>
       </c>
       <c r="AD2" t="n">
-        <v>127258.1747027757</v>
+        <v>175695.0858720965</v>
       </c>
       <c r="AE2" t="n">
-        <v>174120.2488626968</v>
+        <v>240393.7676102351</v>
       </c>
       <c r="AF2" t="n">
         <v>1.631672832097476e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157502.4566905937</v>
+        <v>217450.9238243558</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.2029474639198</v>
+        <v>175.5383734067553</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.0446845180402</v>
+        <v>240.1793467014893</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.4341041009359</v>
+        <v>217.256966946199</v>
       </c>
       <c r="AD3" t="n">
-        <v>127202.9474639198</v>
+        <v>175538.3734067552</v>
       </c>
       <c r="AE3" t="n">
-        <v>174044.6845180402</v>
+        <v>240179.3467014893</v>
       </c>
       <c r="AF3" t="n">
         <v>1.63858726587995e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>157434.1041009359</v>
+        <v>217256.966946199</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.8385293146831</v>
+        <v>198.2585706552062</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.7555362305749</v>
+        <v>271.266122921165</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.4090429482771</v>
+        <v>245.3768648740432</v>
       </c>
       <c r="AD2" t="n">
-        <v>132838.5293146831</v>
+        <v>198258.5706552062</v>
       </c>
       <c r="AE2" t="n">
-        <v>181755.5362305749</v>
+        <v>271266.122921165</v>
       </c>
       <c r="AF2" t="n">
         <v>2.013590208071963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>164409.0429482771</v>
+        <v>245376.8648740432</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.7112953869295</v>
+        <v>181.0909916403997</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.9496932743436</v>
+        <v>247.7766839329856</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.4892313197988</v>
+        <v>224.1292249752535</v>
       </c>
       <c r="AD2" t="n">
-        <v>133711.2953869295</v>
+        <v>181090.9916403997</v>
       </c>
       <c r="AE2" t="n">
-        <v>182949.6932743436</v>
+        <v>247776.6839329856</v>
       </c>
       <c r="AF2" t="n">
         <v>1.879949523264745e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165489.2313197988</v>
+        <v>224129.2249752535</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0988422459739</v>
+        <v>216.756059357728</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.1083460881912</v>
+        <v>296.5752030155501</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.2467776194918</v>
+        <v>268.2704818857453</v>
       </c>
       <c r="AD2" t="n">
-        <v>152098.8422459739</v>
+        <v>216756.059357728</v>
       </c>
       <c r="AE2" t="n">
-        <v>208108.3460881912</v>
+        <v>296575.2030155502</v>
       </c>
       <c r="AF2" t="n">
         <v>2.079781583947023e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>188246.7776194918</v>
+        <v>268270.4818857452</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.868259923293</v>
+        <v>187.0876666974721</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3232384933542</v>
+        <v>255.9815993007001</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4951960828172</v>
+        <v>231.5510747359469</v>
       </c>
       <c r="AD2" t="n">
-        <v>128868.2599232931</v>
+        <v>187087.6666974721</v>
       </c>
       <c r="AE2" t="n">
-        <v>176323.2384933542</v>
+        <v>255981.5993007001</v>
       </c>
       <c r="AF2" t="n">
         <v>1.564020945329821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>159495.1960828172</v>
+        <v>231551.0747359469</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.8685836048024</v>
+        <v>176.3459072912312</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.9554372517894</v>
+        <v>241.2842501881094</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.2579358720259</v>
+        <v>218.2564199947981</v>
       </c>
       <c r="AD3" t="n">
-        <v>127868.5836048024</v>
+        <v>176345.9072912312</v>
       </c>
       <c r="AE3" t="n">
-        <v>174955.4372517894</v>
+        <v>241284.2501881094</v>
       </c>
       <c r="AF3" t="n">
         <v>1.60027735355358e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.47453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>158257.9358720258</v>
+        <v>218256.4199947981</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.1765382165675</v>
+        <v>226.4358469507617</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.8970943117186</v>
+        <v>309.8195154424217</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7195470651998</v>
+        <v>280.2507757231096</v>
       </c>
       <c r="AD2" t="n">
-        <v>162176.5382165675</v>
+        <v>226435.8469507617</v>
       </c>
       <c r="AE2" t="n">
-        <v>221897.0943117186</v>
+        <v>309819.5154424217</v>
       </c>
       <c r="AF2" t="n">
         <v>2.097378463281894e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.3287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>200719.5470651998</v>
+        <v>280250.7757231096</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6579990388968</v>
+        <v>183.1544963216736</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.9308179246107</v>
+        <v>250.6000620733046</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.5219819683523</v>
+        <v>226.6831438684975</v>
       </c>
       <c r="AD2" t="n">
-        <v>125657.9990388968</v>
+        <v>183154.4963216736</v>
       </c>
       <c r="AE2" t="n">
-        <v>171930.8179246107</v>
+        <v>250600.0620733046</v>
       </c>
       <c r="AF2" t="n">
         <v>1.744807431220034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>155521.9819683523</v>
+        <v>226683.1438684975</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.6936837464588</v>
+        <v>184.5660609282569</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.3478874326809</v>
+        <v>252.5314270418663</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8038083514421</v>
+        <v>228.4301820751479</v>
       </c>
       <c r="AD2" t="n">
-        <v>126693.6837464588</v>
+        <v>184566.0609282569</v>
       </c>
       <c r="AE2" t="n">
-        <v>173347.8874326809</v>
+        <v>252531.4270418663</v>
       </c>
       <c r="AF2" t="n">
         <v>1.668143751792259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>156803.8083514421</v>
+        <v>228430.182075148</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.7986630549437</v>
+        <v>184.6710402367418</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.4915247539101</v>
+        <v>252.6750643630955</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.9337371283295</v>
+        <v>228.5601108520353</v>
       </c>
       <c r="AD3" t="n">
-        <v>126798.6630549437</v>
+        <v>184671.0402367418</v>
       </c>
       <c r="AE3" t="n">
-        <v>173491.5247539101</v>
+        <v>252675.0643630955</v>
       </c>
       <c r="AF3" t="n">
         <v>1.667839168139068e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>156933.7371283295</v>
+        <v>228560.1108520353</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8487919381474</v>
+        <v>202.4258017987738</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.8202632904965</v>
+        <v>276.9679124170542</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.0360136010818</v>
+        <v>250.5344835829584</v>
       </c>
       <c r="AD2" t="n">
-        <v>143848.7919381474</v>
+        <v>202425.8017987738</v>
       </c>
       <c r="AE2" t="n">
-        <v>196820.2632904965</v>
+        <v>276967.9124170542</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391100426749715e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>178036.0136010818</v>
+        <v>250534.4835829583</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.9335831977535</v>
+        <v>177.6804382739044</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.4126166793304</v>
+        <v>243.1102143539537</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.5760441401669</v>
+        <v>219.9081167034117</v>
       </c>
       <c r="AD3" t="n">
-        <v>128933.5831977535</v>
+        <v>177680.4382739044</v>
       </c>
       <c r="AE3" t="n">
-        <v>176412.6166793304</v>
+        <v>243110.2143539537</v>
       </c>
       <c r="AF3" t="n">
         <v>1.538803525313578e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159576.044140167</v>
+        <v>219908.1167034117</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6448578985068</v>
+        <v>181.7291444149616</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5445935196972</v>
+        <v>248.6498327124542</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.268056875065</v>
+        <v>224.9190416606818</v>
       </c>
       <c r="AD2" t="n">
-        <v>124644.8578985068</v>
+        <v>181729.1444149616</v>
       </c>
       <c r="AE2" t="n">
-        <v>170544.5935196972</v>
+        <v>248649.8327124542</v>
       </c>
       <c r="AF2" t="n">
         <v>1.831758922512847e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>154268.056875065</v>
+        <v>224919.0416606818</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0873841288907</v>
+        <v>189.4929843407708</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.0960303660732</v>
+        <v>259.2726610153849</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.71704080137</v>
+        <v>234.5280421396174</v>
       </c>
       <c r="AD2" t="n">
-        <v>133087.3841288907</v>
+        <v>189492.9843407708</v>
       </c>
       <c r="AE2" t="n">
-        <v>182096.0303660732</v>
+        <v>259272.6610153849</v>
       </c>
       <c r="AF2" t="n">
         <v>1.966149863667595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.55092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>164717.04080137</v>
+        <v>234528.0421396174</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.2782427698116</v>
+        <v>198.0467274680203</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.6713686306414</v>
+        <v>270.9762697265955</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.0922064315699</v>
+        <v>245.1146748615518</v>
       </c>
       <c r="AD2" t="n">
-        <v>142278.2427698116</v>
+        <v>198046.7274680203</v>
       </c>
       <c r="AE2" t="n">
-        <v>194671.3686306414</v>
+        <v>270976.2697265955</v>
       </c>
       <c r="AF2" t="n">
         <v>2.054392061452475e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>176092.2064315699</v>
+        <v>245114.6748615518</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.9470824648961</v>
+        <v>255.8214862747023</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.3162692840084</v>
+        <v>350.0262435683285</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.4264358647059</v>
+        <v>316.6202301471901</v>
       </c>
       <c r="AD2" t="n">
-        <v>182947.0824648961</v>
+        <v>255821.4862747023</v>
       </c>
       <c r="AE2" t="n">
-        <v>250316.2692840084</v>
+        <v>350026.2435683286</v>
       </c>
       <c r="AF2" t="n">
         <v>2.055651617542627e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>226426.4358647059</v>
+        <v>316620.2301471901</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.964571350197</v>
+        <v>183.6530170847186</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3502836859473</v>
+        <v>251.2821601744864</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9014145061509</v>
+        <v>227.3001434842334</v>
       </c>
       <c r="AD2" t="n">
-        <v>125964.571350197</v>
+        <v>183653.0170847186</v>
       </c>
       <c r="AE2" t="n">
-        <v>172350.2836859473</v>
+        <v>251282.1601744864</v>
       </c>
       <c r="AF2" t="n">
         <v>1.714640013825764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>155901.4145061509</v>
+        <v>227300.1434842334</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.14360239448</v>
+        <v>189.7920919703554</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.1189036123129</v>
+        <v>259.6819132698797</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.6879064956919</v>
+        <v>234.8982359333325</v>
       </c>
       <c r="AD2" t="n">
-        <v>141143.6023944801</v>
+        <v>189792.0919703554</v>
       </c>
       <c r="AE2" t="n">
-        <v>193118.9036123129</v>
+        <v>259681.9132698797</v>
       </c>
       <c r="AF2" t="n">
         <v>1.476926446299895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>174687.9064956919</v>
+        <v>234898.2359333325</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.4205119281565</v>
+        <v>177.0348360852511</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.7106099331613</v>
+        <v>242.2268729574803</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.9410359325794</v>
+        <v>219.10908017004</v>
       </c>
       <c r="AD3" t="n">
-        <v>128420.5119281566</v>
+        <v>177034.8360852511</v>
       </c>
       <c r="AE3" t="n">
-        <v>175710.6099331613</v>
+        <v>242226.8729574803</v>
       </c>
       <c r="AF3" t="n">
         <v>1.567454180307298e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>158941.0359325794</v>
+        <v>219109.08017004</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.3814295878987</v>
+        <v>324.6736271042294</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.3768150889422</v>
+        <v>444.2327801935272</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.9457646665232</v>
+        <v>401.8358271364791</v>
       </c>
       <c r="AD2" t="n">
-        <v>225381.4295878987</v>
+        <v>324673.6271042294</v>
       </c>
       <c r="AE2" t="n">
-        <v>308376.8150889422</v>
+        <v>444232.7801935272</v>
       </c>
       <c r="AF2" t="n">
         <v>1.892536161863551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>278945.7646665232</v>
+        <v>401835.8271364791</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.4402585776565</v>
+        <v>189.9974205142577</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.5788487545963</v>
+        <v>259.9628528421027</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.1537796805325</v>
+        <v>235.1523630270838</v>
       </c>
       <c r="AD2" t="n">
-        <v>133440.2585776565</v>
+        <v>189997.4205142577</v>
       </c>
       <c r="AE2" t="n">
-        <v>182578.8487545963</v>
+        <v>259962.8528421028</v>
       </c>
       <c r="AF2" t="n">
         <v>1.918937512908429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>165153.7796805325</v>
+        <v>235152.3630270838</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0316477995095</v>
+        <v>182.327170075461</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.073816526215</v>
+        <v>249.4680778041792</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.74677158061</v>
+        <v>225.6591945892671</v>
       </c>
       <c r="AD2" t="n">
-        <v>125031.6477995095</v>
+        <v>182327.170075461</v>
       </c>
       <c r="AE2" t="n">
-        <v>171073.8165262149</v>
+        <v>249468.0778041792</v>
       </c>
       <c r="AF2" t="n">
         <v>1.792745821784699e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>154746.77158061</v>
+        <v>225659.1945892671</v>
       </c>
     </row>
   </sheetData>
